--- a/backend/web/pdf/Havells.xlsx
+++ b/backend/web/pdf/Havells.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t xml:space="preserve">Sr.No.	</t>
   </si>
@@ -26,10 +26,10 @@
     <t xml:space="preserve">Item Details	</t>
   </si>
   <si>
-    <t xml:space="preserve">Type of Fitting	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity of Fitting	</t>
+    <t xml:space="preserve">Size	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core	</t>
   </si>
   <si>
     <t xml:space="preserve">Units	</t>
@@ -56,47 +56,22 @@
     <t xml:space="preserve">Firm Email Id	</t>
   </si>
   <si>
-    <t>NORTHERN COMMAND CE NC AND CE 31 ZONE - MES 134 WORKS ENGINEER - MES AGE (I) CIF (K) - MES</t>
-  </si>
-  <si>
-    <t>E/M,Electrical,LT,Lighting</t>
-  </si>
-  <si>
-    <t>LAMPS &amp; TUBES</t>
-  </si>
-  <si>
-    <t>20 Watt</t>
-  </si>
-  <si>
-    <t>NOS</t>
-  </si>
-  <si>
-    <t>Havells,CROMPTON,PHILIPS,BAJAJ,SYSKA LED</t>
-  </si>
-  <si>
-    <t>M/s NAZIR ENTERPRISES</t>
-  </si>
-  <si>
-    <t>QQQ</t>
-  </si>
-  <si>
-    <t>ALAMDAR ROAD,,
-KAKAWRING CHADOORA, BUDGAM (KMR)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>QQQ@GMAIL.COM</t>
-  </si>
-  <si>
     <t xml:space="preserve">NORTHERN COMMAND CE NC AND CE UDHAMPUR ZONE - MES CWE RAJOURI - MES </t>
   </si>
   <si>
-    <t xml:space="preserve"> BATTENS/BOX TYPE FITTING</t>
-  </si>
-  <si>
-    <t>Havells,CROMPTON,PHILIPS</t>
+    <t>E/M,Electrical,LT,Cables,Aluminium,Unarmoured</t>
+  </si>
+  <si>
+    <t>16 Sqmm</t>
+  </si>
+  <si>
+    <t>2 Core</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>HAVELLS,Polycab,FINOLEX</t>
   </si>
   <si>
     <t>M/s MEHTA OM PRAKASH</t>
@@ -110,22 +85,25 @@
 TEHSIL &amp; DISTT- RAJOURI(J&amp;K)</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>MMM@GMAIL.COM</t>
   </si>
   <si>
-    <t>15 Watt</t>
-  </si>
-  <si>
     <t>WESTERN COMMAND CE WC and CE(AF) WAC PALAM-MES CWE (AF) Ambala-MES GE (AF) Ambala-MES</t>
   </si>
   <si>
-    <t>POST LANTERN</t>
-  </si>
-  <si>
-    <t>45 Watt</t>
-  </si>
-  <si>
-    <t>Havells,PHILIPS,BAJAJ,HALONIX</t>
+    <t>E/M,Electrical,LT,Cables,Aluminium,Armoured</t>
+  </si>
+  <si>
+    <t>120 Sqmm</t>
+  </si>
+  <si>
+    <t>3.5 Core</t>
+  </si>
+  <si>
+    <t>ASIAN CABLE,CABLE CORPORATION IF INDIA LTD,FINOLEX,GLOSTER,GRANDLAY ELECTRICAL,HAVELLS,Polycab</t>
   </si>
   <si>
     <t>M/s ESHA ENGINEERS</t>
@@ -145,64 +123,31 @@
     <t>sandeepjethi26@gmail.com</t>
   </si>
   <si>
-    <t>POST MADE</t>
-  </si>
-  <si>
-    <t>Havells,PHILIPS,BAJAJ</t>
-  </si>
-  <si>
-    <t>M/s AALAM CONSTRUCTIONS</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>KHREW PAMPORE
-PULWANA-192301(KMR)</t>
-  </si>
-  <si>
-    <t>CCC@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>WESTERN COMMAND CE WC AND CE JALANDHAR ZONE - MES CWE FEROZEPUR - MES GE (WEST) FEROZEPUR - MES</t>
-  </si>
-  <si>
-    <t>18 Watt</t>
-  </si>
-  <si>
-    <t>ALLWELL,BENLO,EPLUS,HALONIX,Havells,IMPERIAL</t>
-  </si>
-  <si>
-    <t>M/s JAGDISH KUMAR SEHGAL</t>
-  </si>
-  <si>
-    <t>KKK</t>
-  </si>
-  <si>
-    <t>339, CHOTI BARADRI, PART-1,
-NEAR MEDICAL COLLEGE
-GARHA ROAD, JALANDHAR-1(PB)</t>
-  </si>
-  <si>
-    <t>KKK@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>SECURITY LIGHT</t>
-  </si>
-  <si>
-    <t>36 Watt</t>
-  </si>
-  <si>
-    <t>BAJAJ,CROMPTON,HALONIX,Havells,INDO  ASIAN,OSRAM,PHILIPS,WIPRO</t>
-  </si>
-  <si>
-    <t>85 Watt</t>
-  </si>
-  <si>
-    <t>STREET LIGHTS</t>
-  </si>
-  <si>
-    <t>Havells,Surya ,PHILIPS,BAJAJ</t>
+    <t>70 Sqmm</t>
+  </si>
+  <si>
+    <t>HAVELLS</t>
+  </si>
+  <si>
+    <t>50 Sqmm</t>
+  </si>
+  <si>
+    <t>25 Sqmm</t>
+  </si>
+  <si>
+    <t>E/M,Electrical,LT,Cables,Copper,Unarmoured</t>
+  </si>
+  <si>
+    <t>2.5 Sqmm</t>
+  </si>
+  <si>
+    <t>NORTHERN COMMAND CE NC AND CE 31 ZONE - MES 134 WORKS ENGINEER - MES AGE (I) CIF (K) - MES</t>
+  </si>
+  <si>
+    <t>10 Sqmm</t>
+  </si>
+  <si>
+    <t>HAVELLS,Polycab,Plaza,CCI,UNIVERSAL,FINOLEX,NICCO,RALLISON</t>
   </si>
   <si>
     <t>M/s KASHMIR BUILDERS</t>
@@ -218,19 +163,16 @@
     <t>XXXX@GMAIL.COM</t>
   </si>
   <si>
-    <t>48 Watt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAJAJ,Havells,PHILIPS,Surya </t>
-  </si>
-  <si>
-    <t>Havells,CROMPTON,BAJAJ</t>
+    <t>4 Core</t>
+  </si>
+  <si>
+    <t>95 Sqmm</t>
   </si>
   <si>
     <t>WESTERN COMMAND CE WC AND CE JALANDHAR ZONE - MES CWE JALANDHAR - MES GE (EAST) JALANDHAR CANTT - MES</t>
   </si>
   <si>
-    <t xml:space="preserve">C&amp;S,Havells,CROMPTON,PHILIPS,BAJAJ,OSRAM,HPL,HALONIX,EON,HI-TECH,ORISON,POLYCAB,BENLO,KALINGA </t>
+    <t xml:space="preserve">HAVELLS,Polycab,Anchor,Plaza,CCI,UNIVERSAL,FINOLEX,ASIAN CABLE,KEI INDUSTRIES LTD,GLOSTER,NICCO,RPG CABLE,RHINO,PARAGON,PARAMOUNT,GRANDLAY ELECTRICAL,EON,HPL,industrial cable ,CABCOM CABLES,RALLISON,PARAFLEX,DIAMOND,SS CABLE,HEAT FLEX,BONTON,HIND INDUSTRIES,WINDSOR,GEMSCAB,ALCON WIRES AND CABLE,ICL,SHALABH,KALINGA </t>
   </si>
   <si>
     <t>M/s SANDEEP JHANJI CONSTRUCTIONS</t>
@@ -249,28 +191,10 @@
     <t>c@gmail.com</t>
   </si>
   <si>
-    <t>25 Watt</t>
-  </si>
-  <si>
-    <t>C&amp;S,Havells,Surya ,CROMPTON,PHILIPS,BAJAJ,OSRAM,BIRLA POWER,HPL,SYSKA LED,HALONIX,EON,HI-TECH,INSTA POWER,ORISON,POLYCAB,ADHUNIK,BENLO,KALINGA ,ELEKTRON,ESS ESS KAY,ANCHOR,MIC,JAIN INDUSTRIES LIGHTING CORP,GOLDWIN,IMPERIAL</t>
-  </si>
-  <si>
-    <t>CEILING LIGHTS</t>
-  </si>
-  <si>
-    <t>34 Watt</t>
-  </si>
-  <si>
-    <t>ADHUNIK,ANCHOR,BAJAJ,BENLO,BIRLA POWER,C&amp;S,CROMPTON,ELEKTRON,EON,ESS ESS KAY,GOLDWIN,HALONIX,Havells,HI-TECH,HPL,IMPERIAL,INSTA POWER,JAIN INDUSTRIES LIGHTING CORP,KALINGA ,MIC,ORISON,OSRAM,PHILIPS,POLYCAB,Surya ,SYSKA LED</t>
-  </si>
-  <si>
     <t>WESTERN COMMAND CE WC and CE DELHI ZONE-MES CWE NEW DELHI-MES GE NEW DELHI-MES</t>
   </si>
   <si>
-    <t>16 Watt</t>
-  </si>
-  <si>
-    <t>C&amp;S,Havells,CROMPTON</t>
+    <t xml:space="preserve">HAVELLS,Polycab,Anchor,Plaza,CCI,UNIVERSAL,FINOLEX,ASIAN CABLE,KEI INDUSTRIES LTD,GLOSTER,NICCO,RPG CABLE,RHINO,PARAGON,PARAMOUNT,GRANDLAY ELECTRICAL,EON,HPL,industrial cable ,CABCOM CABLES,RALLISON,PARAFLEX,DIAMOND,SS CABLE,HEAT FLEX,BONTON,HIND INDUSTRIES,WINDSOR,GEMSCAB,ALCON WIRES AND CABLE,SHALABH,KALINGA </t>
   </si>
   <si>
     <t>M/s MG GROUP</t>
@@ -286,22 +210,31 @@
     <t>mohitgurmeet@gmail.com</t>
   </si>
   <si>
-    <t>24 Watt</t>
-  </si>
-  <si>
-    <t>10 Watt</t>
-  </si>
-  <si>
-    <t>22 Watt</t>
-  </si>
-  <si>
-    <t>BAJAJ,CROMPTON,Havells</t>
-  </si>
-  <si>
-    <t>7 Watt</t>
-  </si>
-  <si>
-    <t>9 Watt</t>
+    <t xml:space="preserve">WESTERN COMMAND CE WC and CE(AF) WAC PALAM-MES CWE (AF) Bikaner-MES </t>
+  </si>
+  <si>
+    <t>HAVELLS,Polycab,Anchor,CCI,UNIVERSAL,FINOLEX,ASIAN CABLE,KEI INDUSTRIES LTD,NICCO,DIAMOND,HIND INDUSTRIES</t>
+  </si>
+  <si>
+    <t>M/S SHRI SAI CONSTRUCTION COMPANY</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>WARD NO 29 RCP GURDWARA ROAD, SURATGARH-335804 (RAJ)</t>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+  </si>
+  <si>
+    <t>150 Sqmm</t>
+  </si>
+  <si>
+    <t>240 Sqmm</t>
+  </si>
+  <si>
+    <t>400 Sqmm</t>
   </si>
 </sst>
 </file>
@@ -658,7 +591,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:M1"/>
@@ -668,15 +601,15 @@
   <cols>
     <col min="1" max="1" width="12.425537" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="120.256348" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="33.563232" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="54.129639" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.854492" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.710449" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="100" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="39.990234" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="33.563232" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="45.845947" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="62.41333" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="39.990234" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="29.421387" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -742,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -771,134 +704,108 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -907,547 +814,428 @@
         <v>17</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="C9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="C10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:13">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>63</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:13">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:13">
       <c r="C15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>9971882797</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:13">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>1350</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>500</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19">
-        <v>9971882797</v>
-      </c>
-      <c r="M19" t="s">
-        <v>85</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:13">
       <c r="C20" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="C21" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="C22" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="C23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23">
-        <v>170</v>
+        <v>2600</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>130</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25">
-        <v>170</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26">
-        <v>125</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>230</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28">
-        <v>150</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
